--- a/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.715</v>
+        <v>0.634</v>
       </c>
       <c r="C4" t="n">
-        <v>0.657</v>
+        <v>0.312</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.109999999999999</v>
+        <v>-50.79</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.716</v>
+        <v>0.635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.663</v>
+        <v>0.261</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.4</v>
+        <v>-58.9</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.721</v>
+        <v>0.641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.259</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.3</v>
+        <v>-59.59</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.148769686813466</v>
+        <v>1.98707037686836</v>
       </c>
       <c r="C4" t="n">
-        <v>1.841418376192451</v>
+        <v>1.791244217427447</v>
       </c>
       <c r="D4" t="n">
-        <v>-14.3</v>
+        <v>-9.859999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47276219887556</v>
+        <v>0.1097975071611726</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4489980610643736</v>
+        <v>0.1214235414997463</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.03</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="5">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.349</v>
+        <v>42.903</v>
       </c>
       <c r="C5" t="n">
-        <v>10.854</v>
+        <v>4.794</v>
       </c>
       <c r="D5" t="n">
-        <v>-74.95999999999999</v>
+        <v>-88.83</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.39456017481428</v>
+        <v>16.36200796314978</v>
       </c>
       <c r="C6" t="n">
-        <v>18.87814464356644</v>
+        <v>18.31608080181017</v>
       </c>
       <c r="D6" t="n">
-        <v>22.63</v>
+        <v>11.94</v>
       </c>
       <c r="E6" t="n">
-        <v>6.220717658420347</v>
+        <v>1.147700049568965</v>
       </c>
       <c r="F6" t="n">
-        <v>8.734442040403678</v>
+        <v>1.295038843776821</v>
       </c>
       <c r="G6" t="n">
-        <v>40.41</v>
+        <v>12.84</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
